--- a/webscrapping/src/test/resources/ScrapeData/PCOS_Input.xlsx
+++ b/webscrapping/src/test/resources/ScrapeData/PCOS_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reka\eclipse-workspace\webscrapping\src\test\resources\ScrapeData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F15A4C-DA85-4092-9490-43A640217FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A6734A-11D8-4C82-994F-DDA11FB1A509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1140" windowWidth="11076" windowHeight="11292" xr2:uid="{3A5FD9A5-C3D6-47C1-A51B-CA4893F47A8B}"/>
+    <workbookView xWindow="1392" yWindow="948" windowWidth="11076" windowHeight="11292" xr2:uid="{3A5FD9A5-C3D6-47C1-A51B-CA4893F47A8B}"/>
   </bookViews>
   <sheets>
     <sheet name="PCOS_list" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>sheetcounter</t>
   </si>
@@ -182,13 +182,7 @@
     <t>High fiber fruits vegetables</t>
   </si>
   <si>
-    <t>PCOS lunch</t>
-  </si>
-  <si>
     <t>PCOS breakfast</t>
-  </si>
-  <si>
-    <t>PCOS High Fibre</t>
   </si>
   <si>
     <t>PCOS Weight Loss</t>
@@ -659,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2C190D-D16D-4D45-A1CE-79FF408D6326}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -700,22 +694,6 @@
       </c>
       <c r="B4" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
